--- a/teaching/traditional_assets/database/data/cayman_islands/cayman_islands_investments_asset_management.xlsx
+++ b/teaching/traditional_assets/database/data/cayman_islands/cayman_islands_investments_asset_management.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ4"/>
+  <dimension ref="A1:AQ5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -597,25 +597,25 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>-3.343065693430657</v>
+        <v>-1.724731182795699</v>
       </c>
       <c r="J2">
-        <v>-3.112026685959012</v>
+        <v>-1.682100115424336</v>
       </c>
       <c r="K2">
-        <v>79.47</v>
+        <v>0.397</v>
       </c>
       <c r="L2">
-        <v>58.00729927007298</v>
+        <v>0.4268817204301075</v>
       </c>
       <c r="M2">
-        <v>25.7</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>5.205590439538182</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.3233924751478545</v>
+        <v>0</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -627,55 +627,67 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>25.7</v>
-      </c>
-      <c r="T2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>106.285</v>
+        <v>5.5</v>
       </c>
       <c r="V2">
-        <v>21.52825602592668</v>
+        <v>0.05191617896922786</v>
+      </c>
+      <c r="W2">
+        <v>0.06723076923076923</v>
       </c>
       <c r="X2">
-        <v>0.05108121071473511</v>
+        <v>0.03846338425444983</v>
+      </c>
+      <c r="Y2">
+        <v>0.02876738497631941</v>
       </c>
       <c r="Z2">
-        <v>-0.1280373831775701</v>
+        <v>0.1604831751509923</v>
+      </c>
+      <c r="AA2">
+        <v>0.08027579112373862</v>
       </c>
       <c r="AB2">
-        <v>0.05106993442105289</v>
+        <v>0.03846338425444983</v>
+      </c>
+      <c r="AC2">
+        <v>0.04174669577572879</v>
       </c>
       <c r="AD2">
-        <v>0.013</v>
+        <v>0.012</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>0.013</v>
+        <v>0.012</v>
       </c>
       <c r="AG2">
-        <v>-106.272</v>
+        <v>-5.488</v>
       </c>
       <c r="AH2">
-        <v>0.002626262626262627</v>
+        <v>0.0001132588341890667</v>
       </c>
       <c r="AI2">
-        <v>0.0001271853873773395</v>
+        <v>0.0006684491978609625</v>
       </c>
       <c r="AJ2">
-        <v>1.04871959342774</v>
+        <v>-0.05463305857523992</v>
       </c>
       <c r="AK2">
-        <v>26.09823182711206</v>
+        <v>-0.4407324124638612</v>
       </c>
       <c r="AL2">
         <v>0</v>
       </c>
       <c r="AM2">
-        <v>0</v>
+        <v>-2.465</v>
+      </c>
+      <c r="AQ2">
+        <v>0.6507099391480731</v>
       </c>
     </row>
     <row r="3">
@@ -686,7 +698,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mineral &amp; Financial Investments Limited (AIM:MAFL)</t>
+          <t>AIQ Limited (LSE:AIQ)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -701,16 +713,16 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.8961424332344213</v>
+        <v>-21.41935483870968</v>
       </c>
       <c r="J3">
-        <v>0.8805573474390401</v>
+        <v>-21.41935483870968</v>
       </c>
       <c r="K3">
-        <v>3.17</v>
+        <v>-1.09</v>
       </c>
       <c r="L3">
-        <v>0.9406528189910979</v>
+        <v>-35.16129032258065</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -719,7 +731,7 @@
         <v>-0</v>
       </c>
       <c r="O3">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P3">
         <v>-0</v>
@@ -728,52 +740,70 @@
         <v>-0</v>
       </c>
       <c r="R3">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="U3">
-        <v>0.285</v>
+        <v>4.05</v>
       </c>
       <c r="V3">
-        <v>0.06142241379310345</v>
+        <v>0.27</v>
+      </c>
+      <c r="W3">
+        <v>-0.2416851441241686</v>
       </c>
       <c r="X3">
-        <v>0.05112580941690788</v>
+        <v>0.03846338425444983</v>
+      </c>
+      <c r="Y3">
+        <v>-0.2801485283786184</v>
+      </c>
+      <c r="Z3">
+        <v>-0.0574074074074074</v>
+      </c>
+      <c r="AA3">
+        <v>1.22962962962963</v>
       </c>
       <c r="AB3">
-        <v>0.05110325682954345</v>
+        <v>0.03846338425444983</v>
+      </c>
+      <c r="AC3">
+        <v>1.19116624537518</v>
       </c>
       <c r="AD3">
-        <v>0.013</v>
+        <v>0</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.013</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>-0.272</v>
+        <v>-4.05</v>
       </c>
       <c r="AH3">
-        <v>0.002793896410917688</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>0.001996007984031936</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>-0.06227106227106227</v>
+        <v>-0.3698630136986302</v>
       </c>
       <c r="AK3">
-        <v>-0.04367373153500321</v>
+        <v>-1.919431279620853</v>
       </c>
       <c r="AL3">
         <v>0</v>
       </c>
       <c r="AM3">
-        <v>0</v>
+        <v>-0.025</v>
+      </c>
+      <c r="AQ3">
+        <v>26.56</v>
       </c>
     </row>
     <row r="4">
@@ -784,7 +814,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Leaf Clean Energy Company (AIM:LEAF)</t>
+          <t>Mineral &amp; Financial Investments Limited (AIM:MAFL)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -793,31 +823,31 @@
         </is>
       </c>
       <c r="G4">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>3.8</v>
+        <v>0.6006674082313682</v>
       </c>
       <c r="J4">
-        <v>3.340851553509781</v>
+        <v>0.5561263927904828</v>
       </c>
       <c r="K4">
-        <v>76.3</v>
+        <v>0.437</v>
       </c>
       <c r="L4">
-        <v>-38.15</v>
+        <v>0.4860956618464961</v>
       </c>
       <c r="M4">
-        <v>25.7</v>
+        <v>-0</v>
       </c>
       <c r="N4">
-        <v>86.53198653198653</v>
+        <v>-0</v>
       </c>
       <c r="O4">
-        <v>0.3368283093053736</v>
+        <v>-0</v>
       </c>
       <c r="P4">
         <v>-0</v>
@@ -829,67 +859,165 @@
         <v>-0</v>
       </c>
       <c r="S4">
-        <v>25.7</v>
-      </c>
-      <c r="T4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>106</v>
+        <v>0.34</v>
       </c>
       <c r="V4">
-        <v>356.9023569023569</v>
+        <v>0.07172995780590717</v>
       </c>
       <c r="W4">
-        <v>3.953367875647668</v>
+        <v>0.06723076923076923</v>
       </c>
       <c r="X4">
-        <v>0.05103661201256234</v>
+        <v>0.03853721560699273</v>
       </c>
       <c r="Y4">
-        <v>3.902331263635106</v>
+        <v>0.0286935536237765</v>
       </c>
       <c r="Z4">
-        <v>0.1869158878504673</v>
+        <v>0.1443481053307643</v>
       </c>
       <c r="AA4">
-        <v>0.6244582343008938</v>
+        <v>0.08027579112373862</v>
       </c>
       <c r="AB4">
-        <v>0.05103661201256234</v>
+        <v>0.03852909534800982</v>
       </c>
       <c r="AC4">
-        <v>0.5734216222883314</v>
+        <v>0.04174669577572879</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>0.012</v>
       </c>
       <c r="AE4">
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>0</v>
+        <v>0.012</v>
       </c>
       <c r="AG4">
-        <v>-106</v>
+        <v>-0.328</v>
       </c>
       <c r="AH4">
-        <v>0</v>
+        <v>0.002525252525252525</v>
       </c>
       <c r="AI4">
-        <v>0</v>
+        <v>0.00176678445229682</v>
       </c>
       <c r="AJ4">
-        <v>1.002809759420263</v>
+        <v>-0.0743427017225748</v>
       </c>
       <c r="AK4">
-        <v>10.29126213592233</v>
+        <v>-0.05083694978301302</v>
       </c>
       <c r="AL4">
         <v>0</v>
       </c>
       <c r="AM4">
         <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Cayman Islands</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Alussa Energy Acquisition Corp. (NYSE:ALUS)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Investments &amp; Asset Management</t>
+        </is>
+      </c>
+      <c r="K5">
+        <v>1.05</v>
+      </c>
+      <c r="M5">
+        <v>-0</v>
+      </c>
+      <c r="N5">
+        <v>-0</v>
+      </c>
+      <c r="O5">
+        <v>-0</v>
+      </c>
+      <c r="P5">
+        <v>-0</v>
+      </c>
+      <c r="Q5">
+        <v>-0</v>
+      </c>
+      <c r="R5">
+        <v>-0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>1.11</v>
+      </c>
+      <c r="V5">
+        <v>0.01287703016241299</v>
+      </c>
+      <c r="W5">
+        <v>55.26315789473684</v>
+      </c>
+      <c r="X5">
+        <v>0.03846338425444983</v>
+      </c>
+      <c r="Y5">
+        <v>55.22469451048239</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>-13.83177570093458</v>
+      </c>
+      <c r="AB5">
+        <v>0.03846338425444983</v>
+      </c>
+      <c r="AC5">
+        <v>-13.87023908518903</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>-1.11</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AJ5">
+        <v>-0.0130450111646492</v>
+      </c>
+      <c r="AK5">
+        <v>-0.2853470437017995</v>
+      </c>
+      <c r="AL5">
+        <v>0</v>
+      </c>
+      <c r="AM5">
+        <v>-2.44</v>
+      </c>
+      <c r="AQ5">
+        <v>0.6065573770491803</v>
       </c>
     </row>
   </sheetData>
